--- a/data/金砖四国汇率数据指标结果_BIS.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/CodesFile/MoneyMismatch/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D030D7-82E2-7D47-86C9-6A6DB14F13FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDD749B-B2C6-974A-A5FF-D7DEAA835F24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59200" yWindow="-3160" windowWidth="25600" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59200" yWindow="-3160" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中国" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,12 @@
     <sheet name="巴西" sheetId="7" r:id="rId3"/>
     <sheet name="俄罗斯" sheetId="8" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">俄罗斯!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">俄罗斯!$I$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">俄罗斯!$I$2:$I$10</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>时点开始</t>
   </si>
@@ -304,29 +298,13 @@
     <t>样本差分均值</t>
   </si>
   <si>
-    <t>样本差分均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>样本差分方差</t>
   </si>
   <si>
-    <t>样本差分方差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>样本日变化率均值</t>
   </si>
   <si>
-    <t>样本变化率均值</t>
-  </si>
-  <si>
-    <t>样本变化率均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样本变化率方差</t>
-  </si>
-  <si>
-    <t>样本变化率方差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>样本日变化率方差</t>
   </si>
 </sst>
 </file>
@@ -852,7 +830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1467,40 +1445,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.5530875909003139E-5</c:v>
+                  <c:v>1.7616055613373318E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0005050214142826E-5</c:v>
+                  <c:v>9.079226957718449E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9530952233261552E-4</c:v>
+                  <c:v>2.0004413930057374E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7675193055735033E-7</c:v>
+                  <c:v>2.8506595992446043E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8122042226740016E-7</c:v>
+                  <c:v>5.8376712089116715E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8155117948024378E-6</c:v>
+                  <c:v>1.5731656332981211E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2013461239752734E-8</c:v>
+                  <c:v>3.4812365212223568E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5322769513992637E-7</c:v>
+                  <c:v>9.5295423791220804E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1702504485341833E-6</c:v>
+                  <c:v>1.168899909875458E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8611068259036071E-6</c:v>
+                  <c:v>1.5286122757067743E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4667903518817289E-6</c:v>
+                  <c:v>4.2285284909414899E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8276017856269447E-6</c:v>
+                  <c:v>6.8089514394537683E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,43 +2564,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.3362701908957418E-3</c:v>
+                  <c:v>1.3402061855670106E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.1674462114125306E-4</c:v>
+                  <c:v>-8.6997193638914849E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2341311134235175E-3</c:v>
+                  <c:v>4.5369406867845985E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0783132530120482E-2</c:v>
+                  <c:v>3.078313253012048E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5999999999999985E-2</c:v>
+                  <c:v>1.8079999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.9083333333333305E-3</c:v>
+                  <c:v>2.7583333333333392E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0313351498637547E-3</c:v>
+                  <c:v>6.1035422343324259E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7757255936675473E-2</c:v>
+                  <c:v>1.765171503957785E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5737541899441361E-3</c:v>
+                  <c:v>5.5572458100558676E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1249136612021882E-3</c:v>
+                  <c:v>1.1211245901639362E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.1814401168451827E-3</c:v>
+                  <c:v>-6.0822035053554038E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3511218323586744E-2</c:v>
+                  <c:v>1.40585633528265E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0365120225694448E-2</c:v>
+                  <c:v>1.0100108940972222E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,43 +2965,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.7889470501857171E-3</c:v>
+                  <c:v>2.7971687498099364E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2107692792802266E-3</c:v>
+                  <c:v>2.2085121030890999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.885814351664971E-3</c:v>
+                  <c:v>2.5587983399780918E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11216362541073384</c:v>
+                  <c:v>9.7323625410733888E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3720481927710848E-2</c:v>
+                  <c:v>2.1057342971887529E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7885737465180921E-3</c:v>
+                  <c:v>3.3910657311977711E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9944507884435924E-2</c:v>
+                  <c:v>1.9941869209809237E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1324967374460798E-2</c:v>
+                  <c:v>3.1309666736468865E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3381533458105599E-3</c:v>
+                  <c:v>5.364836873407196E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7507161280220577E-3</c:v>
+                  <c:v>5.7492033482623396E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8090306744517573E-2</c:v>
+                  <c:v>1.8092137534450714E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4859079251026454E-2</c:v>
+                  <c:v>8.4729862047453502E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7699859579115793E-2</c:v>
+                  <c:v>7.7550498912356769E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,7 +3238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3388,43 +3366,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.8030430949621197E-4</c:v>
+                  <c:v>1.8083539730032454E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.3177339498810852E-5</c:v>
+                  <c:v>-8.7330753904797767E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7786603013949727E-4</c:v>
+                  <c:v>3.4486879573842282E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7715614104397552E-3</c:v>
+                  <c:v>1.3935160028817626E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.188360777540002E-4</c:v>
+                  <c:v>6.6076301598905066E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7989651495284838E-4</c:v>
+                  <c:v>1.0645211481879921E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8794245319481663E-4</c:v>
+                  <c:v>1.8997351588617456E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6430758268714475E-4</c:v>
+                  <c:v>4.6182159586748264E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292910285528079E-4</c:v>
+                  <c:v>1.2898669632849854E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.628189024041784E-5</c:v>
+                  <c:v>2.6203890705709475E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.411418236306173E-4</c:v>
+                  <c:v>-1.3885173946614132E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3544396218652983E-4</c:v>
+                  <c:v>3.4713773486083675E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9181957226619353E-4</c:v>
+                  <c:v>1.8655319890123831E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,7 +3639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3789,43 +3767,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.4947803644444884E-5</c:v>
+                  <c:v>4.5080296854601232E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1095767748622028E-5</c:v>
+                  <c:v>3.1060248718269752E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0454950309581723E-5</c:v>
+                  <c:v>1.7491340309621092E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0606786813294998E-4</c:v>
+                  <c:v>1.8478804431285099E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3823709338394162E-5</c:v>
+                  <c:v>2.8036651347241256E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5944012527111378E-6</c:v>
+                  <c:v>3.6368545643955333E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6274058060893614E-5</c:v>
+                  <c:v>1.6271920910143032E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0151673116819987E-5</c:v>
+                  <c:v>2.0143931892446294E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8437087326270419E-6</c:v>
+                  <c:v>2.8585041572486512E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6640152094795624E-6</c:v>
+                  <c:v>2.663289010046285E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4971770955249774E-6</c:v>
+                  <c:v>9.4978321870058453E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7810489566467883E-5</c:v>
+                  <c:v>3.7749923019801135E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2599830370093288E-5</c:v>
+                  <c:v>2.2582264372765011E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4097,6 +4075,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4133,6 +4116,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4169,6 +4157,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4205,6 +4198,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4241,6 +4239,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4277,6 +4280,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4316,6 +4324,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4355,6 +4368,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4394,6 +4412,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4433,6 +4456,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4472,6 +4500,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4511,6 +4544,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4553,6 +4591,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4753,6 +4796,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4789,6 +4837,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4825,6 +4878,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4861,6 +4919,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4897,6 +4960,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4933,6 +5001,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4972,6 +5045,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5011,6 +5089,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -5050,6 +5133,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -5089,6 +5177,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -5128,6 +5221,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -5167,6 +5265,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -5209,6 +5312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5369,7 +5477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5409,6 +5517,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5445,6 +5558,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5481,6 +5599,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5517,6 +5640,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5553,6 +5681,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5589,6 +5722,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5628,6 +5766,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5667,6 +5810,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -5706,6 +5854,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -5745,6 +5898,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -5784,6 +5942,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -5823,6 +5986,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -5865,6 +6033,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-F55E-A94A-B57B-68F47B4A61CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5969,43 +6142,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.8030430949621197E-4</c:v>
+                  <c:v>1.8083539730032454E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.3177339498810852E-5</c:v>
+                  <c:v>-8.7330753904797767E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7786603013949727E-4</c:v>
+                  <c:v>3.4486879573842282E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7715614104397552E-3</c:v>
+                  <c:v>1.3935160028817626E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.188360777540002E-4</c:v>
+                  <c:v>6.6076301598905066E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7989651495284838E-4</c:v>
+                  <c:v>1.0645211481879921E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8794245319481663E-4</c:v>
+                  <c:v>1.8997351588617456E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6430758268714475E-4</c:v>
+                  <c:v>4.6182159586748264E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292910285528079E-4</c:v>
+                  <c:v>1.2898669632849854E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.628189024041784E-5</c:v>
+                  <c:v>2.6203890705709475E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.411418236306173E-4</c:v>
+                  <c:v>-1.3885173946614132E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3544396218652983E-4</c:v>
+                  <c:v>3.4713773486083675E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9181957226619353E-4</c:v>
+                  <c:v>1.8655319890123831E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6712,6 +6885,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-ABBE-FB4A-A5E7-D9CFE014E704}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7025,7 +7203,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7690,43 +7868,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.8030430949621197E-4</c:v>
+                  <c:v>1.8083539730032454E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.3177339498810852E-5</c:v>
+                  <c:v>-8.7330753904797767E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7786603013949727E-4</c:v>
+                  <c:v>3.4486879573842282E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7715614104397552E-3</c:v>
+                  <c:v>1.3935160028817626E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.188360777540002E-4</c:v>
+                  <c:v>6.6076301598905066E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7989651495284838E-4</c:v>
+                  <c:v>1.0645211481879921E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8794245319481663E-4</c:v>
+                  <c:v>1.8997351588617456E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6430758268714475E-4</c:v>
+                  <c:v>4.6182159586748264E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292910285528079E-4</c:v>
+                  <c:v>1.2898669632849854E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.628189024041784E-5</c:v>
+                  <c:v>2.6203890705709475E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.411418236306173E-4</c:v>
+                  <c:v>-1.3885173946614132E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3544396218652983E-4</c:v>
+                  <c:v>3.4713773486083675E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9181957226619353E-4</c:v>
+                  <c:v>1.8655319890123831E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7786,6 +7964,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7822,6 +8005,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7858,6 +8046,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7894,6 +8087,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -7930,6 +8128,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -7966,6 +8169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -8005,6 +8213,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -8044,6 +8257,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -8083,6 +8301,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -8122,6 +8345,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -8161,6 +8389,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -8200,6 +8433,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -8242,6 +8480,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8442,6 +8685,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8478,6 +8726,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8514,6 +8767,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8550,6 +8808,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -8586,6 +8849,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -8622,6 +8890,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -8661,6 +8934,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -8700,6 +8978,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -8739,6 +9022,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -8778,6 +9066,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -8817,6 +9110,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -8856,6 +9154,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -8898,6 +9201,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9058,7 +9366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9098,6 +9406,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -9134,6 +9447,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9170,6 +9488,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -9206,6 +9529,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -9242,6 +9570,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -9278,6 +9611,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -9317,6 +9655,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -9356,6 +9699,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -9395,6 +9743,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -9434,6 +9787,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -9473,6 +9831,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -9512,6 +9875,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -9554,6 +9922,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-51F0-8F4D-B7C7-3564CE5941AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9658,43 +10031,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.8030430949621197E-4</c:v>
+                  <c:v>1.8083539730032454E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.3177339498810852E-5</c:v>
+                  <c:v>-8.7330753904797767E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7786603013949727E-4</c:v>
+                  <c:v>3.4486879573842282E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7715614104397552E-3</c:v>
+                  <c:v>1.3935160028817626E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.188360777540002E-4</c:v>
+                  <c:v>6.6076301598905066E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7989651495284838E-4</c:v>
+                  <c:v>1.0645211481879921E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8794245319481663E-4</c:v>
+                  <c:v>1.8997351588617456E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6430758268714475E-4</c:v>
+                  <c:v>4.6182159586748264E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292910285528079E-4</c:v>
+                  <c:v>1.2898669632849854E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.628189024041784E-5</c:v>
+                  <c:v>2.6203890705709475E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.411418236306173E-4</c:v>
+                  <c:v>-1.3885173946614132E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3544396218652983E-4</c:v>
+                  <c:v>3.4713773486083675E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9181957226619353E-4</c:v>
+                  <c:v>1.8655319890123831E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10239,7 +10612,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10904,43 +11277,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.4947803644444884E-5</c:v>
+                  <c:v>4.5080296854601232E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1095767748622028E-5</c:v>
+                  <c:v>3.1060248718269752E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0454950309581723E-5</c:v>
+                  <c:v>1.7491340309621092E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0606786813294998E-4</c:v>
+                  <c:v>1.8478804431285099E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3823709338394162E-5</c:v>
+                  <c:v>2.8036651347241256E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5944012527111378E-6</c:v>
+                  <c:v>3.6368545643955333E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6274058060893614E-5</c:v>
+                  <c:v>1.6271920910143032E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0151673116819987E-5</c:v>
+                  <c:v>2.0143931892446294E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8437087326270419E-6</c:v>
+                  <c:v>2.8585041572486512E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6640152094795624E-6</c:v>
+                  <c:v>2.663289010046285E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4971770955249774E-6</c:v>
+                  <c:v>9.4978321870058453E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7810489566467883E-5</c:v>
+                  <c:v>3.7749923019801135E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2599830370093288E-5</c:v>
+                  <c:v>2.2582264372765011E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11936,25 +12309,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.841850914997293E-7</c:v>
+                  <c:v>4.7636306991869921E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7280690036900368E-3</c:v>
+                  <c:v>1.7972854411271218E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4782608695652178E-4</c:v>
+                  <c:v>9.4680474308304332E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3322434207290427E-4</c:v>
+                  <c:v>-1.0331359709212527E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.1777448271022642E-4</c:v>
+                  <c:v>-3.4771579710113609E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0768637862647057E-3</c:v>
+                  <c:v>2.2276448650502671E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4834429916951226E-4</c:v>
+                  <c:v>7.5494971104902455E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12301,25 +12674,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3618330136441737E-12</c:v>
+                  <c:v>2.307860479279215E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4850854859422067E-5</c:v>
+                  <c:v>1.3162306533244229E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2837739735876175E-4</c:v>
+                  <c:v>9.7633576942398931E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8924931050623031E-4</c:v>
+                  <c:v>9.9976525803182779E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4162207062407204E-4</c:v>
+                  <c:v>1.5085144861789421E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8339095791257412E-3</c:v>
+                  <c:v>2.8304460325202299E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7097760469815489E-4</c:v>
+                  <c:v>7.7096704484404916E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12556,7 +12929,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12666,25 +13039,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.4728868368859978E-3</c:v>
+                  <c:v>7.4715317032288406E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2942854096116032E-2</c:v>
+                  <c:v>1.3046715710908409E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.886315624185238E-4</c:v>
+                  <c:v>6.7349539972745966E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2704233136434701E-7</c:v>
+                  <c:v>1.8559884090709803E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8240241085337753E-4</c:v>
+                  <c:v>-1.8311937432317657E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4155540616968309E-3</c:v>
+                  <c:v>1.5042002020284673E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0925175374495406E-4</c:v>
+                  <c:v>3.1021885424448761E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12921,7 +13294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13031,25 +13404,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0394200775333483E-4</c:v>
+                  <c:v>1.0405304375691399E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4368116429419086E-5</c:v>
+                  <c:v>2.0411368544420786E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7738117509005342E-5</c:v>
+                  <c:v>5.0465449229345148E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.483735055904961E-4</c:v>
+                  <c:v>1.509576951209591E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2922284737004353E-5</c:v>
+                  <c:v>5.621366323253552E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.687422162498325E-4</c:v>
+                  <c:v>5.6799804599312869E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0543611033950885E-5</c:v>
+                  <c:v>9.0594284530824825E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14863,7 +15236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15510,25 +15883,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.4728868368859978E-3</c:v>
+                  <c:v>7.4715317032288406E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2942854096116032E-2</c:v>
+                  <c:v>1.3046715710908409E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.886315624185238E-4</c:v>
+                  <c:v>6.7349539972745966E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2704233136434701E-7</c:v>
+                  <c:v>1.8559884090709803E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8240241085337753E-4</c:v>
+                  <c:v>-1.8311937432317657E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4155540616968309E-3</c:v>
+                  <c:v>1.5042002020284673E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0925175374495406E-4</c:v>
+                  <c:v>3.1021885424448761E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15809,40 +16182,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.5765557163531113E-3</c:v>
+                  <c:v>1.2117391304347826E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3191275167785239E-3</c:v>
+                  <c:v>1.7047818791946308E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4116535433070866E-3</c:v>
+                  <c:v>9.1228346456692904E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5637813211845161E-4</c:v>
+                  <c:v>2.8544419134396361E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0925925925925838E-4</c:v>
+                  <c:v>-1.325396825396838E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0060227272727206E-4</c:v>
+                  <c:v>-1.2870813397132762E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.3705084745763584E-4</c:v>
+                  <c:v>-1.748923728813568E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.91383962264151E-3</c:v>
+                  <c:v>-1.911790880503145E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6565692007797293E-4</c:v>
+                  <c:v>-1.5744444444444462E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0164122137404589E-4</c:v>
+                  <c:v>-4.4885496183206115E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.282625282167044E-3</c:v>
+                  <c:v>1.5479796839729127E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.6625292740047214E-5</c:v>
+                  <c:v>-4.024121779859525E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16074,7 +16447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16674,25 +17047,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0394200775333483E-4</c:v>
+                  <c:v>1.0405304375691399E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4368116429419086E-5</c:v>
+                  <c:v>2.0411368544420786E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7738117509005342E-5</c:v>
+                  <c:v>5.0465449229345148E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.483735055904961E-4</c:v>
+                  <c:v>1.509576951209591E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2922284737004353E-5</c:v>
+                  <c:v>5.621366323253552E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.687422162498325E-4</c:v>
+                  <c:v>5.6799804599312869E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0543611033950885E-5</c:v>
+                  <c:v>9.0594284530824825E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17718,31 +18091,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.6332569974554703E-3</c:v>
+                  <c:v>5.628494897959184E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.896894409937888E-3</c:v>
+                  <c:v>2.1763975155279502E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35805000000000003</c:v>
+                  <c:v>0.80847222222222215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1492682352941175E-2</c:v>
+                  <c:v>1.6415047058823531E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.8464625850339977E-4</c:v>
+                  <c:v>-4.42392290249435E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.5841916376306606E-3</c:v>
+                  <c:v>-7.6606445993031378E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4956990196078429E-2</c:v>
+                  <c:v>1.5359666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3385424558587482E-2</c:v>
+                  <c:v>1.2680699839486357E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2804584513692164E-2</c:v>
+                  <c:v>2.2129456090651558E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18095,31 +18468,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.1263776232638039E-3</c:v>
+                  <c:v>3.1342106603115955E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0801982865177213E-4</c:v>
+                  <c:v>3.0087626309446507E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.575690159117646</c:v>
+                  <c:v>1.0249806103594765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12871605047070192</c:v>
+                  <c:v>0.17809843289568461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.85465953907749E-3</c:v>
+                  <c:v>2.8615049672310092E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2267397420749026E-3</c:v>
+                  <c:v>4.2280221385471153E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6134551284343882E-2</c:v>
+                  <c:v>6.6066402162743648E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2076310260972215E-2</c:v>
+                  <c:v>4.072516649447528E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7778305492072185</c:v>
+                  <c:v>0.77825662838223886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18356,7 +18729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18472,31 +18845,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.9060289508135605E-3</c:v>
+                  <c:v>4.9143282327158144E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1778241750877045E-4</c:v>
+                  <c:v>4.0633622663150982E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6600266390444921E-2</c:v>
+                  <c:v>7.1676729633943878E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2983221714315729E-3</c:v>
+                  <c:v>1.0679677383155545E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1916555403359797E-5</c:v>
+                  <c:v>-1.389681060313478E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9090286562402016E-4</c:v>
+                  <c:v>-2.928946410410973E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9513026569987836E-4</c:v>
+                  <c:v>6.096848590393584E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7445944636264449E-4</c:v>
+                  <c:v>3.5578439889111566E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9809316556607573E-4</c:v>
+                  <c:v>4.847354279537958E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18733,7 +19106,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18849,31 +19222,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.100504647036879E-4</c:v>
+                  <c:v>7.1183005073531351E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1169960063760653E-6</c:v>
+                  <c:v>1.3895900652355953E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5027409874702831E-2</c:v>
+                  <c:v>6.4687115469033588E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0531382458721536E-4</c:v>
+                  <c:v>7.2239173342162515E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3645942262802018E-6</c:v>
+                  <c:v>3.3726793252539017E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4713889725557915E-6</c:v>
+                  <c:v>6.4681832822576601E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9022592295294778E-5</c:v>
+                  <c:v>6.894581995586537E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9213239545218119E-5</c:v>
+                  <c:v>3.8641555245928423E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9641928196004118E-4</c:v>
+                  <c:v>1.966258373470789E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19145,6 +19518,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -19181,6 +19559,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -19217,6 +19600,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -19253,6 +19641,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -19289,6 +19682,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -19325,6 +19723,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -19364,6 +19767,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -19403,6 +19811,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -19442,6 +19855,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-F33F-794A-90BB-63F2EB77551E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -20490,7 +20908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20530,6 +20948,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -20566,6 +20989,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -20602,6 +21030,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -20638,6 +21071,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -20674,6 +21112,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -20710,6 +21153,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -20749,6 +21197,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -20788,6 +21241,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -20827,6 +21285,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-619D-0243-A260-52FB44822039}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -20919,31 +21382,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.9060289508135605E-3</c:v>
+                  <c:v>4.9143282327158144E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1778241750877045E-4</c:v>
+                  <c:v>4.0633622663150982E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6600266390444921E-2</c:v>
+                  <c:v>7.1676729633943878E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2983221714315729E-3</c:v>
+                  <c:v>1.0679677383155545E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1916555403359797E-5</c:v>
+                  <c:v>-1.389681060313478E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9090286562402016E-4</c:v>
+                  <c:v>-2.928946410410973E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9513026569987836E-4</c:v>
+                  <c:v>6.096848590393584E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7445944636264449E-4</c:v>
+                  <c:v>3.5578439889111566E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9809316556607573E-4</c:v>
+                  <c:v>4.847354279537958E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21224,40 +21687,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.6712734279884837E-4</c:v>
+                  <c:v>8.2427867894189257E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0554114558292342E-3</c:v>
+                  <c:v>1.2676311861824423E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3361627466504388E-2</c:v>
+                  <c:v>6.3151583894284423E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.040132187281631E-5</c:v>
+                  <c:v>9.6496383325844239E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0012248256215175E-5</c:v>
+                  <c:v>4.0188832259695739E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2419716514812124E-4</c:v>
+                  <c:v>1.0759747969730727E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.063795159785811E-6</c:v>
+                  <c:v>2.3830622037874615E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3288701936443387E-5</c:v>
+                  <c:v>5.3276527290058509E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4633493034410055E-5</c:v>
+                  <c:v>5.4574444001302077E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4458394777214592E-5</c:v>
+                  <c:v>6.1560236993462683E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5275070967374861E-4</c:v>
+                  <c:v>1.8208482203804779E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0145249377006359E-4</c:v>
+                  <c:v>3.0057242993933054E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21489,7 +21952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22095,31 +22558,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.100504647036879E-4</c:v>
+                  <c:v>7.1183005073531351E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1169960063760653E-6</c:v>
+                  <c:v>1.3895900652355953E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5027409874702831E-2</c:v>
+                  <c:v>6.4687115469033588E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0531382458721536E-4</c:v>
+                  <c:v>7.2239173342162515E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3645942262802018E-6</c:v>
+                  <c:v>3.3726793252539017E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4713889725557915E-6</c:v>
+                  <c:v>6.4681832822576601E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9022592295294778E-5</c:v>
+                  <c:v>6.894581995586537E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9213239545218119E-5</c:v>
+                  <c:v>3.8641555245928423E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9641928196004118E-4</c:v>
+                  <c:v>1.966258373470789E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22250,7 +22713,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN"/>
-              <a:t>样本变化率均值</a:t>
+              <a:t>样本</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>日</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>变化率均值</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22300,7 +22771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22425,40 +22896,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.5666344141659808E-4</c:v>
+                  <c:v>5.4312133432047542E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.264344379254437E-4</c:v>
+                  <c:v>4.5179570629769671E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3860365356599721E-4</c:v>
+                  <c:v>1.6628622703844E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.3427206989661842E-5</c:v>
+                  <c:v>5.1599801674420275E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2873606739508769E-5</c:v>
+                  <c:v>-1.5669829487973631E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1366892724799131E-5</c:v>
+                  <c:v>6.3099412248774681E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1630776364972025E-5</c:v>
+                  <c:v>-2.122178657886107E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5655278022568273E-4</c:v>
+                  <c:v>-2.5625562244573156E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3728955474151242E-5</c:v>
+                  <c:v>-2.2496497562361768E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.4903154765688167E-5</c:v>
+                  <c:v>-6.829666269475237E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9593763300408291E-4</c:v>
+                  <c:v>2.3859014036905856E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.1919763673270138E-6</c:v>
+                  <c:v>-2.4483178291798426E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22702,7 +23173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率方差</c:v>
+                  <c:v>样本日变化率方差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22827,40 +23298,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.5530875909003139E-5</c:v>
+                  <c:v>1.7616055613373318E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0005050214142826E-5</c:v>
+                  <c:v>9.079226957718449E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9530952233261552E-4</c:v>
+                  <c:v>2.0004413930057374E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7675193055735033E-7</c:v>
+                  <c:v>2.8506595992446043E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8122042226740016E-7</c:v>
+                  <c:v>5.8376712089116715E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8155117948024378E-6</c:v>
+                  <c:v>1.5731656332981211E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2013461239752734E-8</c:v>
+                  <c:v>3.4812365212223568E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5322769513992637E-7</c:v>
+                  <c:v>9.5295423791220804E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1702504485341833E-6</c:v>
+                  <c:v>1.168899909875458E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8611068259036071E-6</c:v>
+                  <c:v>1.5286122757067743E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4667903518817289E-6</c:v>
+                  <c:v>4.2285284909414899E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8276017856269447E-6</c:v>
+                  <c:v>6.8089514394537683E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24000,6 +24471,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-265E-8440-AB26-1D727B25645A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -24036,6 +24512,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-265E-8440-AB26-1D727B25645A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -24072,6 +24553,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-265E-8440-AB26-1D727B25645A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -24766,7 +25252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25428,40 +25914,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.5666344141659808E-4</c:v>
+                  <c:v>5.4312133432047542E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.264344379254437E-4</c:v>
+                  <c:v>4.5179570629769671E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3860365356599721E-4</c:v>
+                  <c:v>1.6628622703844E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.3427206989661842E-5</c:v>
+                  <c:v>5.1599801674420275E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2873606739508769E-5</c:v>
+                  <c:v>-1.5669829487973631E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1366892724799131E-5</c:v>
+                  <c:v>6.3099412248774681E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1630776364972025E-5</c:v>
+                  <c:v>-2.122178657886107E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5655278022568273E-4</c:v>
+                  <c:v>-2.5625562244573156E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3728955474151242E-5</c:v>
+                  <c:v>-2.2496497562361768E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.4903154765688167E-5</c:v>
+                  <c:v>-6.829666269475237E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9593763300408291E-4</c:v>
+                  <c:v>2.3859014036905856E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.1919763673270138E-6</c:v>
+                  <c:v>-2.4483178291798426E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25481,7 +25967,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>样本变化率均值</c:v>
+                  <c:v>样本日变化率均值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26143,40 +26629,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.5666344141659808E-4</c:v>
+                  <c:v>5.4312133432047542E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.264344379254437E-4</c:v>
+                  <c:v>4.5179570629769671E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3860365356599721E-4</c:v>
+                  <c:v>1.6628622703844E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.3427206989661842E-5</c:v>
+                  <c:v>5.1599801674420275E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2873606739508769E-5</c:v>
+                  <c:v>-1.5669829487973631E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1366892724799131E-5</c:v>
+                  <c:v>6.3099412248774681E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1630776364972025E-5</c:v>
+                  <c:v>-2.122178657886107E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5655278022568273E-4</c:v>
+                  <c:v>-2.5625562244573156E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3728955474151242E-5</c:v>
+                  <c:v>-2.2496497562361768E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.4903154765688167E-5</c:v>
+                  <c:v>-6.829666269475237E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9593763300408291E-4</c:v>
+                  <c:v>2.3859014036905856E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.1919763673270138E-6</c:v>
+                  <c:v>-2.4483178291798426E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -49227,8 +49713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="69" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="118" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="AC38" sqref="AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -49256,16 +49742,16 @@
         <v>86</v>
       </c>
       <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
-        <v>93</v>
-      </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -49285,16 +49771,16 @@
         <v>0.27995067756733721</v>
       </c>
       <c r="F2">
-        <v>1.5765557163531113E-3</v>
+        <v>1.2117391304347826E-3</v>
       </c>
       <c r="G2">
-        <v>2.6712734279884837E-4</v>
+        <v>8.2427867894189257E-5</v>
       </c>
       <c r="H2">
-        <v>6.5666344141659808E-4</v>
+        <v>5.4312133432047542E-4</v>
       </c>
       <c r="I2">
-        <v>3.5530875909003139E-5</v>
+        <v>1.7616055613373318E-5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -49314,16 +49800,16 @@
         <v>0.2751688628167</v>
       </c>
       <c r="F3">
-        <v>1.3191275167785239E-3</v>
+        <v>1.7047818791946308E-3</v>
       </c>
       <c r="G3">
-        <v>1.0554114558292342E-3</v>
+        <v>1.2676311861824423E-3</v>
       </c>
       <c r="H3">
-        <v>3.264344379254437E-4</v>
+        <v>4.5179570629769671E-4</v>
       </c>
       <c r="I3">
-        <v>7.0005050214142826E-5</v>
+        <v>9.079226957718449E-5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -49343,16 +49829,16 @@
         <v>3.1765909308875032E-2</v>
       </c>
       <c r="F4">
-        <v>5.4116535433070866E-3</v>
+        <v>9.1228346456692904E-4</v>
       </c>
       <c r="G4">
-        <v>1.3361627466504388E-2</v>
+        <v>6.3151583894284423E-5</v>
       </c>
       <c r="H4">
-        <v>9.3860365356599721E-4</v>
+        <v>1.6628622703844E-4</v>
       </c>
       <c r="I4">
-        <v>3.9530952233261552E-4</v>
+        <v>2.0004413930057374E-6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -49372,16 +49858,16 @@
         <v>2.8138142214268465E-2</v>
       </c>
       <c r="F5">
-        <v>-4.5637813211845161E-4</v>
+        <v>2.8544419134396361E-3</v>
       </c>
       <c r="G5">
-        <v>2.040132187281631E-5</v>
+        <v>9.6496383325844239E-3</v>
       </c>
       <c r="H5">
-        <v>-5.3427206989661842E-5</v>
+        <v>5.1599801674420275E-4</v>
       </c>
       <c r="I5">
-        <v>2.7675193055735033E-7</v>
+        <v>2.8506595992446043E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -49401,16 +49887,16 @@
         <v>1.926436150056881E-4</v>
       </c>
       <c r="F6">
-        <v>-1.0925925925925838E-4</v>
+        <v>-1.325396825396838E-4</v>
       </c>
       <c r="G6">
-        <v>4.0012248256215175E-5</v>
+        <v>4.0188832259695739E-5</v>
       </c>
       <c r="H6">
-        <v>-1.2873606739508769E-5</v>
+        <v>-1.5669829487973631E-5</v>
       </c>
       <c r="I6">
-        <v>5.8122042226740016E-7</v>
+        <v>5.8376712089116715E-7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -49430,16 +49916,16 @@
         <v>5.1437833690663944E-5</v>
       </c>
       <c r="F7">
-        <v>-1.0060227272727206E-4</v>
+        <v>-1.2870813397132762E-6</v>
       </c>
       <c r="G7">
-        <v>1.2419716514812124E-4</v>
+        <v>1.0759747969730727E-4</v>
       </c>
       <c r="H7">
-        <v>-1.1366892724799131E-5</v>
+        <v>6.3099412248774681E-7</v>
       </c>
       <c r="I7">
-        <v>1.8155117948024378E-6</v>
+        <v>1.5731656332981211E-6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -49459,16 +49945,16 @@
         <v>4.0034725361553039E-4</v>
       </c>
       <c r="F8">
-        <v>-3.3705084745763584E-4</v>
+        <v>-1.748923728813568E-3</v>
       </c>
       <c r="G8">
-        <v>4.063795159785811E-6</v>
+        <v>2.3830622037874615E-4</v>
       </c>
       <c r="H8">
-        <v>-4.1630776364972025E-5</v>
+        <v>-2.122178657886107E-4</v>
       </c>
       <c r="I8">
-        <v>6.2013461239752734E-8</v>
+        <v>3.4812365212223568E-6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -49488,16 +49974,16 @@
         <v>0.12378934342799437</v>
       </c>
       <c r="F9">
-        <v>-1.91383962264151E-3</v>
+        <v>-1.911790880503145E-3</v>
       </c>
       <c r="G9">
-        <v>5.3288701936443387E-5</v>
+        <v>5.3276527290058509E-5</v>
       </c>
       <c r="H9">
-        <v>-2.5655278022568273E-4</v>
+        <v>-2.5625562244573156E-4</v>
       </c>
       <c r="I9">
-        <v>9.5322769513992637E-7</v>
+        <v>9.5295423791220804E-7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -49517,16 +50003,16 @@
         <v>1.3538917949513382E-4</v>
       </c>
       <c r="F10">
-        <v>-1.6565692007797293E-4</v>
+        <v>-1.5744444444444462E-4</v>
       </c>
       <c r="G10">
-        <v>5.4633493034410055E-5</v>
+        <v>5.4574444001302077E-5</v>
       </c>
       <c r="H10">
-        <v>-2.3728955474151242E-5</v>
+        <v>-2.2496497562361768E-5</v>
       </c>
       <c r="I10">
-        <v>1.1702504485341833E-6</v>
+        <v>1.168899909875458E-6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -49546,16 +50032,16 @@
         <v>3.5056409515099071E-2</v>
       </c>
       <c r="F11">
-        <v>-3.0164122137404589E-4</v>
+        <v>-4.4885496183206115E-4</v>
       </c>
       <c r="G11">
-        <v>7.4458394777214592E-5</v>
+        <v>6.1560236993462683E-5</v>
       </c>
       <c r="H11">
-        <v>-4.4903154765688167E-5</v>
+        <v>-6.829666269475237E-5</v>
       </c>
       <c r="I11">
-        <v>1.8611068259036071E-6</v>
+        <v>1.5286122757067743E-6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -49575,16 +50061,16 @@
         <v>3.750045618840505E-2</v>
       </c>
       <c r="F12">
-        <v>1.282625282167044E-3</v>
+        <v>1.5479796839729127E-3</v>
       </c>
       <c r="G12">
-        <v>1.5275070967374861E-4</v>
+        <v>1.8208482203804779E-4</v>
       </c>
       <c r="H12">
-        <v>1.9593763300408291E-4</v>
+        <v>2.3859014036905856E-4</v>
       </c>
       <c r="I12">
-        <v>3.4667903518817289E-6</v>
+        <v>4.2285284909414899E-6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -49604,16 +50090,16 @@
         <v>4.6296302565713196E-2</v>
       </c>
       <c r="F13">
-        <v>-8.6625292740047214E-5</v>
+        <v>-4.024121779859525E-5</v>
       </c>
       <c r="G13">
-        <v>3.0145249377006359E-4</v>
+        <v>3.0057242993933054E-4</v>
       </c>
       <c r="H13">
-        <v>-9.1919763673270138E-6</v>
+        <v>-2.4483178291798426E-6</v>
       </c>
       <c r="I13">
-        <v>6.8276017856269447E-6</v>
+        <v>6.8089514394537683E-6</v>
       </c>
     </row>
   </sheetData>
@@ -49628,8 +50114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5634B652-5924-944D-B566-42E619FECB77}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView topLeftCell="K33" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -49661,13 +50147,13 @@
         <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -49687,16 +50173,16 @@
         <v>0.12783383847353377</v>
       </c>
       <c r="F2">
-        <v>1.3362701908957418E-3</v>
+        <v>1.3402061855670106E-3</v>
       </c>
       <c r="G2">
-        <v>2.7889470501857171E-3</v>
+        <v>2.7971687498099364E-3</v>
       </c>
       <c r="H2">
-        <v>1.8030430949621197E-4</v>
+        <v>1.8083539730032454E-4</v>
       </c>
       <c r="I2">
-        <v>4.4947803644444884E-5</v>
+        <v>4.5080296854601232E-5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -49716,16 +50202,16 @@
         <v>0.14878149045451841</v>
       </c>
       <c r="F3">
-        <v>-9.1674462114125306E-4</v>
+        <v>-8.6997193638914849E-4</v>
       </c>
       <c r="G3">
-        <v>2.2107692792802266E-3</v>
+        <v>2.2085121030890999E-3</v>
       </c>
       <c r="H3">
-        <v>-9.3177339498810852E-5</v>
+        <v>-8.7330753904797767E-5</v>
       </c>
       <c r="I3">
-        <v>3.1095767748622028E-5</v>
+        <v>3.1060248718269752E-5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -49745,16 +50231,16 @@
         <v>10.486096807579814</v>
       </c>
       <c r="F4">
-        <v>5.2341311134235175E-3</v>
+        <v>4.5369406867845985E-3</v>
       </c>
       <c r="G4">
-        <v>3.885814351664971E-3</v>
+        <v>2.5587983399780918E-3</v>
       </c>
       <c r="H4">
-        <v>3.7786603013949727E-4</v>
+        <v>3.4486879573842282E-4</v>
       </c>
       <c r="I4">
-        <v>2.0454950309581723E-5</v>
+        <v>1.7491340309621092E-5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -49774,16 +50260,16 @@
         <v>0.37672891201168324</v>
       </c>
       <c r="F5">
-        <v>4.0783132530120482E-2</v>
+        <v>3.078313253012048E-2</v>
       </c>
       <c r="G5">
-        <v>0.11216362541073384</v>
+        <v>9.7323625410733888E-2</v>
       </c>
       <c r="H5">
-        <v>1.7715614104397552E-3</v>
+        <v>1.3935160028817626E-3</v>
       </c>
       <c r="I5">
-        <v>2.0606786813294998E-4</v>
+        <v>1.8478804431285099E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -49803,16 +50289,16 @@
         <v>0.27042037590361445</v>
       </c>
       <c r="F6">
-        <v>2.5999999999999985E-2</v>
+        <v>1.8079999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>6.3720481927710848E-2</v>
+        <v>2.1057342971887529E-2</v>
       </c>
       <c r="H6">
-        <v>9.188360777540002E-4</v>
+        <v>6.6076301598905066E-4</v>
       </c>
       <c r="I6">
-        <v>7.3823709338394162E-5</v>
+        <v>2.8036651347241256E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -49832,16 +50318,16 @@
         <v>3.9285807172701831E-2</v>
       </c>
       <c r="F7">
-        <v>-5.9083333333333305E-3</v>
+        <v>2.7583333333333392E-3</v>
       </c>
       <c r="G7">
-        <v>4.7885737465180921E-3</v>
+        <v>3.3910657311977711E-2</v>
       </c>
       <c r="H7">
-        <v>-1.7989651495284838E-4</v>
+        <v>1.0645211481879921E-4</v>
       </c>
       <c r="I7">
-        <v>4.5944012527111378E-6</v>
+        <v>3.6368545643955333E-5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -49861,16 +50347,16 @@
         <v>4.1212156512707656</v>
       </c>
       <c r="F8">
-        <v>6.0313351498637547E-3</v>
+        <v>6.1035422343324259E-3</v>
       </c>
       <c r="G8">
-        <v>1.9944507884435924E-2</v>
+        <v>1.9941869209809237E-2</v>
       </c>
       <c r="H8">
-        <v>1.8794245319481663E-4</v>
+        <v>1.8997351588617456E-4</v>
       </c>
       <c r="I8">
-        <v>1.6274058060893614E-5</v>
+        <v>1.6271920910143032E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -49890,16 +50376,16 @@
         <v>6.5959597048624214</v>
       </c>
       <c r="F9">
-        <v>1.7757255936675473E-2</v>
+        <v>1.765171503957785E-2</v>
       </c>
       <c r="G9">
-        <v>3.1324967374460798E-2</v>
+        <v>3.1309666736468865E-2</v>
       </c>
       <c r="H9">
-        <v>4.6430758268714475E-4</v>
+        <v>4.6182159586748264E-4</v>
       </c>
       <c r="I9">
-        <v>2.0151673116819987E-5</v>
+        <v>2.0143931892446294E-5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -49919,16 +50405,16 @@
         <v>0.21187554319447346</v>
       </c>
       <c r="F10">
-        <v>5.5737541899441361E-3</v>
+        <v>5.5572458100558676E-3</v>
       </c>
       <c r="G10">
-        <v>5.3381533458105599E-3</v>
+        <v>5.364836873407196E-3</v>
       </c>
       <c r="H10">
-        <v>1.292910285528079E-4</v>
+        <v>1.2898669632849854E-4</v>
       </c>
       <c r="I10">
-        <v>2.8437087326270419E-6</v>
+        <v>2.8585041572486512E-6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -49948,16 +50434,16 @@
         <v>1.4130231533019015</v>
       </c>
       <c r="F11">
-        <v>1.1249136612021882E-3</v>
+        <v>1.1211245901639362E-3</v>
       </c>
       <c r="G11">
-        <v>5.7507161280220577E-3</v>
+        <v>5.7492033482623396E-3</v>
       </c>
       <c r="H11">
-        <v>2.628189024041784E-5</v>
+        <v>2.6203890705709475E-5</v>
       </c>
       <c r="I11">
-        <v>2.6640152094795624E-6</v>
+        <v>2.663289010046285E-6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -49977,16 +50463,16 @@
         <v>4.0012440271919782</v>
       </c>
       <c r="F12">
-        <v>-6.1814401168451827E-3</v>
+        <v>-6.0822035053554038E-3</v>
       </c>
       <c r="G12">
-        <v>1.8090306744517573E-2</v>
+        <v>1.8092137534450714E-2</v>
       </c>
       <c r="H12">
-        <v>-1.411418236306173E-4</v>
+        <v>-1.3885173946614132E-4</v>
       </c>
       <c r="I12">
-        <v>9.4971770955249774E-6</v>
+        <v>9.4978321870058453E-6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -50006,16 +50492,16 @@
         <v>13.190103412778269</v>
       </c>
       <c r="F13">
-        <v>1.3511218323586744E-2</v>
+        <v>1.40585633528265E-2</v>
       </c>
       <c r="G13">
-        <v>8.4859079251026454E-2</v>
+        <v>8.4729862047453502E-2</v>
       </c>
       <c r="H13">
-        <v>3.3544396218652983E-4</v>
+        <v>3.4713773486083675E-4</v>
       </c>
       <c r="I13">
-        <v>3.7810489566467883E-5</v>
+        <v>3.7749923019801135E-5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -50035,16 +50521,16 @@
         <v>70.101888096157339</v>
       </c>
       <c r="F14">
-        <v>1.0365120225694448E-2</v>
+        <v>1.0100108940972222E-2</v>
       </c>
       <c r="G14">
-        <v>7.7699859579115793E-2</v>
+        <v>7.7550498912356769E-2</v>
       </c>
       <c r="H14">
-        <v>1.9181957226619353E-4</v>
+        <v>1.8655319890123831E-4</v>
       </c>
       <c r="I14">
-        <v>2.2599830370093288E-5</v>
+        <v>2.2582264372765011E-5</v>
       </c>
     </row>
   </sheetData>
@@ -50059,8 +50545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF092A2E-740A-894E-8E86-FE2F08612109}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M3"/>
+    <sheetView topLeftCell="H42" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -50092,13 +50578,13 @@
         <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -50118,16 +50604,16 @@
         <v>1.8653909840847539E-8</v>
       </c>
       <c r="F2">
-        <v>4.841850914997293E-7</v>
+        <v>4.7636306991869921E-7</v>
       </c>
       <c r="G2">
-        <v>2.3618330136441737E-12</v>
+        <v>2.307860479279215E-12</v>
       </c>
       <c r="H2">
-        <v>7.4728868368859978E-3</v>
+        <v>7.4715317032288406E-3</v>
       </c>
       <c r="I2">
-        <v>1.0394200775333483E-4</v>
+        <v>1.0405304375691399E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -50147,16 +50633,16 @@
         <v>4.1080112747907203E-2</v>
       </c>
       <c r="F3">
-        <v>1.7280690036900368E-3</v>
+        <v>1.7972854411271218E-3</v>
       </c>
       <c r="G3">
-        <v>1.4850854859422067E-5</v>
+        <v>1.3162306533244229E-5</v>
       </c>
       <c r="H3">
-        <v>1.2942854096116032E-2</v>
+        <v>1.3046715710908409E-2</v>
       </c>
       <c r="I3">
-        <v>2.4368116429419086E-5</v>
+        <v>2.0411368544420786E-5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -50176,16 +50662,16 @@
         <v>1.6050488703742385E-2</v>
       </c>
       <c r="F4">
-        <v>7.4782608695652178E-4</v>
+        <v>9.4680474308304332E-4</v>
       </c>
       <c r="G4">
-        <v>1.2837739735876175E-4</v>
+        <v>9.7633576942398931E-5</v>
       </c>
       <c r="H4">
-        <v>5.886315624185238E-4</v>
+        <v>6.7349539972745966E-4</v>
       </c>
       <c r="I4">
-        <v>5.7738117509005342E-5</v>
+        <v>5.0465449229345148E-5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -50205,16 +50691,16 @@
         <v>0.27192453380505688</v>
       </c>
       <c r="F5">
-        <v>-1.3322434207290427E-4</v>
+        <v>-1.0331359709212527E-4</v>
       </c>
       <c r="G5">
-        <v>9.8924931050623031E-4</v>
+        <v>9.9976525803182779E-4</v>
       </c>
       <c r="H5">
-        <v>5.2704233136434701E-7</v>
+        <v>1.8559884090709803E-5</v>
       </c>
       <c r="I5">
-        <v>1.483735055904961E-4</v>
+        <v>1.509576951209591E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -50234,16 +50720,16 @@
         <v>1.0907849237266161E-3</v>
       </c>
       <c r="F6">
-        <v>-5.1777448271022642E-4</v>
+        <v>-3.4771579710113609E-4</v>
       </c>
       <c r="G6">
-        <v>1.4162207062407204E-4</v>
+        <v>1.5085144861789421E-4</v>
       </c>
       <c r="H6">
-        <v>-2.8240241085337753E-4</v>
+        <v>-1.8311937432317657E-4</v>
       </c>
       <c r="I6">
-        <v>5.2922284737004353E-5</v>
+        <v>5.621366323253552E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -50263,16 +50749,16 @@
         <v>3.8502358855145288E-2</v>
       </c>
       <c r="F7">
-        <v>2.0768637862647057E-3</v>
+        <v>2.2276448650502671E-3</v>
       </c>
       <c r="G7">
-        <v>2.8339095791257412E-3</v>
+        <v>2.8304460325202299E-3</v>
       </c>
       <c r="H7">
-        <v>1.4155540616968309E-3</v>
+        <v>1.5042002020284673E-3</v>
       </c>
       <c r="I7">
-        <v>5.687422162498325E-4</v>
+        <v>5.6799804599312869E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -50292,16 +50778,16 @@
         <v>0.60405461626600998</v>
       </c>
       <c r="F8">
-        <v>7.4834429916951226E-4</v>
+        <v>7.5494971104902455E-4</v>
       </c>
       <c r="G8">
-        <v>7.7097760469815489E-4</v>
+        <v>7.7096704484404916E-4</v>
       </c>
       <c r="H8">
-        <v>3.0925175374495406E-4</v>
+        <v>3.1021885424448761E-4</v>
       </c>
       <c r="I8">
-        <v>9.0543611033950885E-5</v>
+        <v>9.0594284530824825E-5</v>
       </c>
     </row>
   </sheetData>
@@ -50315,8 +50801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028BAFE-FE72-9A41-8D36-69EEC9139129}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M5"/>
+    <sheetView topLeftCell="D1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -50348,13 +50834,13 @@
         <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -50374,16 +50860,16 @@
         <v>2.1918512019931455</v>
       </c>
       <c r="F2">
-        <v>5.6332569974554703E-3</v>
+        <v>5.628494897959184E-3</v>
       </c>
       <c r="G2">
-        <v>3.1263776232638039E-3</v>
+        <v>3.1342106603115955E-3</v>
       </c>
       <c r="H2">
-        <v>4.9060289508135605E-3</v>
+        <v>4.9143282327158144E-3</v>
       </c>
       <c r="I2">
-        <v>7.100504647036879E-4</v>
+        <v>7.1183005073531351E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -50403,16 +50889,16 @@
         <v>0.3330197289422453</v>
       </c>
       <c r="F3">
-        <v>2.896894409937888E-3</v>
+        <v>2.1763975155279502E-3</v>
       </c>
       <c r="G3">
-        <v>3.0801982865177213E-4</v>
+        <v>3.0087626309446507E-5</v>
       </c>
       <c r="H3">
-        <v>5.1778241750877045E-4</v>
+        <v>4.0633622663150982E-4</v>
       </c>
       <c r="I3">
-        <v>8.1169960063760653E-6</v>
+        <v>1.3895900652355953E-6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -50432,16 +50918,16 @@
         <v>20.921184619084965</v>
       </c>
       <c r="F4">
-        <v>0.35805000000000003</v>
+        <v>0.80847222222222215</v>
       </c>
       <c r="G4">
-        <v>3.575690159117646</v>
+        <v>1.0249806103594765</v>
       </c>
       <c r="H4">
-        <v>4.6600266390444921E-2</v>
+        <v>7.1676729633943878E-2</v>
       </c>
       <c r="I4">
-        <v>1.5027409874702831E-2</v>
+        <v>6.4687115469033588E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -50461,16 +50947,16 @@
         <v>14.627635637361868</v>
       </c>
       <c r="F5">
-        <v>2.1492682352941175E-2</v>
+        <v>1.6415047058823531E-2</v>
       </c>
       <c r="G5">
-        <v>0.12871605047070192</v>
+        <v>0.17809843289568461</v>
       </c>
       <c r="H5">
-        <v>1.2983221714315729E-3</v>
+        <v>1.0679677383155545E-3</v>
       </c>
       <c r="I5">
-        <v>6.0531382458721536E-4</v>
+        <v>7.2239173342162515E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -50490,16 +50976,16 @@
         <v>1.6189765883931553</v>
       </c>
       <c r="F6">
-        <v>-3.8464625850339977E-4</v>
+        <v>-4.42392290249435E-4</v>
       </c>
       <c r="G6">
-        <v>2.85465953907749E-3</v>
+        <v>2.8615049672310092E-3</v>
       </c>
       <c r="H6">
-        <v>-1.1916555403359797E-5</v>
+        <v>-1.389681060313478E-5</v>
       </c>
       <c r="I6">
-        <v>3.3645942262802018E-6</v>
+        <v>3.3726793252539017E-6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -50519,16 +51005,16 @@
         <v>1.4251812563053152</v>
       </c>
       <c r="F7">
-        <v>-7.5841916376306606E-3</v>
+        <v>-7.6606445993031378E-3</v>
       </c>
       <c r="G7">
-        <v>4.2267397420749026E-3</v>
+        <v>4.2280221385471153E-3</v>
       </c>
       <c r="H7">
-        <v>-2.9090286562402016E-4</v>
+        <v>-2.928946410410973E-4</v>
       </c>
       <c r="I7">
-        <v>6.4713889725557915E-6</v>
+        <v>6.4681832822576601E-6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -50548,16 +51034,16 @@
         <v>13.112221978566218</v>
       </c>
       <c r="F8">
-        <v>1.4956990196078429E-2</v>
+        <v>1.5359666666666666E-2</v>
       </c>
       <c r="G8">
-        <v>6.6134551284343882E-2</v>
+        <v>6.6066402162743648E-2</v>
       </c>
       <c r="H8">
-        <v>5.9513026569987836E-4</v>
+        <v>6.096848590393584E-4</v>
       </c>
       <c r="I8">
-        <v>6.9022592295294778E-5</v>
+        <v>6.894581995586537E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -50577,16 +51063,16 @@
         <v>7.2422471067848724</v>
       </c>
       <c r="F9">
-        <v>1.3385424558587482E-2</v>
+        <v>1.2680699839486357E-2</v>
       </c>
       <c r="G9">
-        <v>4.2076310260972215E-2</v>
+        <v>4.072516649447528E-2</v>
       </c>
       <c r="H9">
-        <v>3.7445944636264449E-4</v>
+        <v>3.5578439889111566E-4</v>
       </c>
       <c r="I9">
-        <v>3.9213239545218119E-5</v>
+        <v>3.8641555245928423E-5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -50606,16 +51092,16 @@
         <v>33.510939315539886</v>
       </c>
       <c r="F10">
-        <v>2.2804584513692164E-2</v>
+        <v>2.2129456090651558E-2</v>
       </c>
       <c r="G10">
-        <v>0.7778305492072185</v>
+        <v>0.77825662838223886</v>
       </c>
       <c r="H10">
-        <v>4.9809316556607573E-4</v>
+        <v>4.847354279537958E-4</v>
       </c>
       <c r="I10">
-        <v>1.9641928196004118E-4</v>
+        <v>1.966258373470789E-4</v>
       </c>
     </row>
   </sheetData>
